--- a/template/Report.xlsx
+++ b/template/Report.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tung.nguyen\Desktop\0 Project\stock\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB5E9A8-8D40-4090-824B-AF8EB322943D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5D6186-73C1-4992-8C2F-64B7BC8A89D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="1290" windowWidth="18480" windowHeight="12510" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Signal" sheetId="1" r:id="rId1"/>
     <sheet name="Valuation" sheetId="2" r:id="rId2"/>
     <sheet name="FCFF" sheetId="3" r:id="rId3"/>
-    <sheet name="Beta" sheetId="4" r:id="rId4"/>
+    <sheet name="Beta" sheetId="7" r:id="rId4"/>
     <sheet name="BetaTemplate" sheetId="5" r:id="rId5"/>
     <sheet name="temp" sheetId="6" r:id="rId6"/>
   </sheets>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
   <si>
     <t>Symbol</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>cal</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
@@ -905,7 +908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD29EAD-F622-4122-954F-237A33729FF7}">
   <dimension ref="B2:BF65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -2529,16 +2532,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE23BE5A-4894-434B-92C9-FEDA148B2D7B}">
-  <dimension ref="D1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D13E89-9855-41A0-BC4E-FEF1446A701B}">
+  <dimension ref="C1:J84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
       <c r="D1" t="s">
         <v>18</v>
       </c>
@@ -2552,112 +2558,1663 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="D2">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <f>D2/D3-1</f>
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="H2">
-        <f t="shared" ref="H2:H7" si="0">E2/E3-1</f>
-        <v>0.17647058823529416</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <f>SLOPE(G2:G7,H2:H7)</f>
-        <v>1.2043232870196978</v>
-      </c>
-    </row>
-    <row r="3" spans="4:10" x14ac:dyDescent="0.25">
+        <f>SLOPE(G3:G84,H3:H84)</f>
+        <v>1.5761316352027794</v>
+      </c>
+    </row>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <f>C2+1</f>
+        <v>2</v>
+      </c>
       <c r="D3">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G7" si="1">D3/D4-1</f>
-        <v>0.5</v>
+        <f t="shared" ref="G3:H8" si="0">D3/D2-1</f>
+        <v>2</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="4:10" x14ac:dyDescent="0.25">
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="J3">
+        <f>_xlfn.COVARIANCE.P(G3:G84,H3:H84)/_xlfn.VAR.P(H3:H84)</f>
+        <v>1.576131635202779</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <f t="shared" ref="C4:C67" si="1">C3+1</f>
+        <v>3</v>
+      </c>
       <c r="D4">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
-        <v>6.6666666666666652E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.1333333333333333</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>6.6666666666666652E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="4:10" x14ac:dyDescent="0.25">
+        <v>0.4285714285714286</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="D5">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="E5">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
-        <v>7.1428571428571397E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.8823529411764719E-2</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>7.1428571428571397E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="D6">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
-        <v>-0.125</v>
+        <f t="shared" si="0"/>
+        <v>0.38888888888888884</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>-0.125</v>
-      </c>
-    </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
+        <v>0.23809523809523814</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="D7">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="E7">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
-        <v>0.33333333333333326</v>
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>0.33333333333333326</v>
-      </c>
-    </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
+        <v>0.15384615384615374</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="D8">
+        <v>41</v>
+      </c>
+      <c r="E8">
+        <v>32</v>
+      </c>
+      <c r="G8">
+        <f>D8/D7-1</f>
+        <v>0.28125</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666652E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>49</v>
+      </c>
+      <c r="E9">
+        <v>39</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:G72" si="2">D9/D8-1</f>
+        <v>0.19512195121951215</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9:H72" si="3">E9/E8-1</f>
+        <v>0.21875</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>59</v>
+      </c>
+      <c r="E10">
+        <v>45</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>0.20408163265306123</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>0.15384615384615374</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D11">
         <v>60</v>
       </c>
-      <c r="E8">
+      <c r="E11">
+        <v>54</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>1.6949152542372836E-2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>63</v>
+      </c>
+      <c r="E12">
+        <v>66</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>0.22222222222222232</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>68</v>
+      </c>
+      <c r="E13">
+        <v>71</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>7.9365079365079305E-2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>7.575757575757569E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>73</v>
+      </c>
+      <c r="E14">
+        <v>75</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>7.3529411764705843E-2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>5.6338028169014009E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>83</v>
+      </c>
+      <c r="E15">
+        <v>77</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>0.13698630136986312</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>2.6666666666666616E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>91</v>
+      </c>
+      <c r="E16">
+        <v>83</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>9.6385542168674787E-2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>7.7922077922077948E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>98</v>
+      </c>
+      <c r="E17">
+        <v>90</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>7.6923076923076872E-2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>8.43373493975903E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>108</v>
+      </c>
+      <c r="E18">
+        <v>92</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>0.1020408163265305</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>2.2222222222222143E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>117</v>
+      </c>
+      <c r="E19">
+        <v>97</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>5.4347826086956541E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>121</v>
+      </c>
+      <c r="E20">
+        <v>107</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>3.4188034188034289E-2</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>0.10309278350515472</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>125</v>
+      </c>
+      <c r="E21">
+        <v>117</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>3.3057851239669311E-2</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>9.3457943925233655E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>132</v>
+      </c>
+      <c r="E22">
+        <v>127</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>5.600000000000005E-2</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>8.5470085470085388E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>134</v>
+      </c>
+      <c r="E23">
+        <v>139</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>1.5151515151515138E-2</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>9.4488188976378007E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>137</v>
+      </c>
+      <c r="E24">
+        <v>149</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>2.2388059701492491E-2</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>7.1942446043165464E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>143</v>
+      </c>
+      <c r="E25">
+        <v>161</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>4.3795620437956151E-2</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>8.0536912751677958E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>148</v>
+      </c>
+      <c r="E26">
+        <v>171</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>3.4965034965035002E-2</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>6.211180124223592E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>151</v>
+      </c>
+      <c r="E27">
+        <v>180</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>2.0270270270270174E-2</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>5.2631578947368363E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>156</v>
+      </c>
+      <c r="E28">
+        <v>182</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>3.3112582781456901E-2</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>1.1111111111111072E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <v>166</v>
+      </c>
+      <c r="E29">
+        <v>189</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>6.4102564102564097E-2</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>3.8461538461538547E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>175</v>
+      </c>
+      <c r="E30">
+        <v>194</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>5.4216867469879526E-2</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>2.6455026455026509E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>185</v>
+      </c>
+      <c r="E31">
+        <v>196</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>5.7142857142857162E-2</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>1.0309278350515427E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <v>190</v>
+      </c>
+      <c r="E32">
+        <v>199</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>2.7027027027026973E-2</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>1.5306122448979664E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>194</v>
+      </c>
+      <c r="E33">
+        <v>204</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>2.1052631578947434E-2</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>2.5125628140703515E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>201</v>
+      </c>
+      <c r="E34">
+        <v>211</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>3.6082474226804218E-2</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="3"/>
+        <v>3.4313725490196179E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="D35">
+        <v>211</v>
+      </c>
+      <c r="E35">
+        <v>221</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>4.9751243781094523E-2</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="3"/>
+        <v>4.7393364928909998E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D36">
+        <v>212</v>
+      </c>
+      <c r="E36">
+        <v>229</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>4.7393364928909332E-3</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="3"/>
+        <v>3.6199095022624528E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D37">
+        <v>213</v>
+      </c>
+      <c r="E37">
+        <v>238</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>4.7169811320755262E-3</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>3.9301310043668103E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="D38">
+        <v>215</v>
+      </c>
+      <c r="E38">
+        <v>246</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>9.3896713615022609E-3</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="3"/>
+        <v>3.3613445378151363E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="D39">
+        <v>221</v>
+      </c>
+      <c r="E39">
+        <v>252</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>2.7906976744185963E-2</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="3"/>
+        <v>2.4390243902439046E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="D40">
+        <v>227</v>
+      </c>
+      <c r="E40">
+        <v>255</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>2.7149321266968229E-2</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>1.1904761904761862E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="D41">
+        <v>234</v>
+      </c>
+      <c r="E41">
+        <v>263</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>3.0837004405286361E-2</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="3"/>
+        <v>3.1372549019607954E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="D42">
+        <v>241</v>
+      </c>
+      <c r="E42">
+        <v>268</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>2.9914529914529808E-2</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="3"/>
+        <v>1.9011406844106515E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="D43">
+        <v>250</v>
+      </c>
+      <c r="E43">
+        <v>276</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>3.7344398340249052E-2</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="3"/>
+        <v>2.9850746268656803E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="D44">
+        <v>256</v>
+      </c>
+      <c r="E44">
+        <v>288</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>2.4000000000000021E-2</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="3"/>
+        <v>4.3478260869565188E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="D45">
+        <v>258</v>
+      </c>
+      <c r="E45">
+        <v>295</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="3"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="D46">
+        <v>262</v>
+      </c>
+      <c r="E46">
+        <v>307</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>1.5503875968992276E-2</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="3"/>
+        <v>4.067796610169494E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="D47">
+        <v>272</v>
+      </c>
+      <c r="E47">
+        <v>308</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="2"/>
+        <v>3.8167938931297662E-2</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="3"/>
+        <v>3.2573289902280145E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="D48">
+        <v>275</v>
+      </c>
+      <c r="E48">
+        <v>315</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>1.1029411764705843E-2</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="3"/>
+        <v>2.2727272727272707E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="D49">
+        <v>284</v>
+      </c>
+      <c r="E49">
+        <v>322</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="2"/>
+        <v>3.2727272727272716E-2</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="3"/>
+        <v>2.2222222222222143E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="D50">
+        <v>285</v>
+      </c>
+      <c r="E50">
+        <v>330</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>3.5211267605634866E-3</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="3"/>
+        <v>2.4844720496894457E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="D51">
+        <v>288</v>
+      </c>
+      <c r="E51">
+        <v>334</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="2"/>
+        <v>1.0526315789473717E-2</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="3"/>
+        <v>1.2121212121212199E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="D52">
+        <v>289</v>
+      </c>
+      <c r="E52">
+        <v>335</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="2"/>
+        <v>3.4722222222223209E-3</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="3"/>
+        <v>2.9940119760478723E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="D53">
+        <v>293</v>
+      </c>
+      <c r="E53">
+        <v>336</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="2"/>
+        <v>1.384083044982698E-2</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="3"/>
+        <v>2.9850746268655914E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="D54">
+        <v>298</v>
+      </c>
+      <c r="E54">
+        <v>342</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="2"/>
+        <v>1.7064846416382284E-2</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="3"/>
+        <v>1.7857142857142794E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="D55">
+        <v>302</v>
+      </c>
+      <c r="E55">
+        <v>349</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="2"/>
+        <v>1.3422818791946289E-2</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="3"/>
+        <v>2.0467836257309857E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="D56">
+        <v>305</v>
+      </c>
+      <c r="E56">
+        <v>351</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="2"/>
+        <v>9.9337748344370258E-3</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="3"/>
+        <v>5.7306590257879542E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="D57">
+        <v>313</v>
+      </c>
+      <c r="E57">
+        <v>352</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="2"/>
+        <v>2.6229508196721207E-2</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="3"/>
+        <v>2.8490028490029129E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="D58">
+        <v>314</v>
+      </c>
+      <c r="E58">
+        <v>362</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="2"/>
+        <v>3.1948881789136685E-3</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="3"/>
+        <v>2.8409090909090828E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="D59">
+        <v>315</v>
+      </c>
+      <c r="E59">
+        <v>363</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="2"/>
+        <v>3.1847133757962887E-3</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="3"/>
+        <v>2.7624309392264568E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="D60">
+        <v>319</v>
+      </c>
+      <c r="E60">
+        <v>367</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="2"/>
+        <v>1.2698412698412653E-2</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="3"/>
+        <v>1.1019283746556363E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <f t="shared" si="1"/>
         <v>60</v>
+      </c>
+      <c r="D61">
+        <v>326</v>
+      </c>
+      <c r="E61">
+        <v>369</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="2"/>
+        <v>2.1943573667711602E-2</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="3"/>
+        <v>5.4495912806540314E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="D62">
+        <v>330</v>
+      </c>
+      <c r="E62">
+        <v>378</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="2"/>
+        <v>1.2269938650306678E-2</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="3"/>
+        <v>2.4390243902439046E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="D63">
+        <v>335</v>
+      </c>
+      <c r="E63">
+        <v>387</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="2"/>
+        <v>1.5151515151515138E-2</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="3"/>
+        <v>2.3809523809523725E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="D64">
+        <v>345</v>
+      </c>
+      <c r="E64">
+        <v>393</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="2"/>
+        <v>2.9850746268656803E-2</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="3"/>
+        <v>1.5503875968992276E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="D65">
+        <v>346</v>
+      </c>
+      <c r="E65">
+        <v>404</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="2"/>
+        <v>2.8985507246377384E-3</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="3"/>
+        <v>2.7989821882951738E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="D66">
+        <v>351</v>
+      </c>
+      <c r="E66">
+        <v>412</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="2"/>
+        <v>1.4450867052023142E-2</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="3"/>
+        <v>1.980198019801982E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="D67">
+        <v>361</v>
+      </c>
+      <c r="E67">
+        <v>416</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="2"/>
+        <v>2.8490028490028463E-2</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="3"/>
+        <v>9.7087378640776656E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <f t="shared" ref="C68:C84" si="4">C67+1</f>
+        <v>67</v>
+      </c>
+      <c r="D68">
+        <v>371</v>
+      </c>
+      <c r="E68">
+        <v>420</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="2"/>
+        <v>2.7700831024930705E-2</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="3"/>
+        <v>9.6153846153845812E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="D69">
+        <v>379</v>
+      </c>
+      <c r="E69">
+        <v>423</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="2"/>
+        <v>2.1563342318059231E-2</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="3"/>
+        <v>7.1428571428571175E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="D70">
+        <v>387</v>
+      </c>
+      <c r="E70">
+        <v>426</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="2"/>
+        <v>2.1108179419525142E-2</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="3"/>
+        <v>7.0921985815601829E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="D71">
+        <v>395</v>
+      </c>
+      <c r="E71">
+        <v>436</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="2"/>
+        <v>2.067183462532296E-2</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="3"/>
+        <v>2.3474178403755763E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="D72">
+        <v>403</v>
+      </c>
+      <c r="E72">
+        <v>441</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="2"/>
+        <v>2.0253164556962133E-2</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="3"/>
+        <v>1.1467889908256979E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="D73">
+        <v>412</v>
+      </c>
+      <c r="E73">
+        <v>449</v>
+      </c>
+      <c r="G73">
+        <f t="shared" ref="G73:G84" si="5">D73/D72-1</f>
+        <v>2.2332506203474045E-2</v>
+      </c>
+      <c r="H73">
+        <f t="shared" ref="H73:H84" si="6">E73/E72-1</f>
+        <v>1.8140589569161092E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="D74">
+        <v>418</v>
+      </c>
+      <c r="E74">
+        <v>451</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="5"/>
+        <v>1.4563106796116498E-2</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="6"/>
+        <v>4.4543429844097204E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="D75">
+        <v>419</v>
+      </c>
+      <c r="E75">
+        <v>457</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="5"/>
+        <v>2.3923444976077235E-3</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="6"/>
+        <v>1.3303769401330268E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="D76">
+        <v>428</v>
+      </c>
+      <c r="E76">
+        <v>460</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="5"/>
+        <v>2.1479713603818507E-2</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="6"/>
+        <v>6.5645514223193757E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <f t="shared" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="D77">
+        <v>437</v>
+      </c>
+      <c r="E77">
+        <v>468</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="5"/>
+        <v>2.1028037383177489E-2</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="6"/>
+        <v>1.7391304347825987E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="D78">
+        <v>446</v>
+      </c>
+      <c r="E78">
+        <v>473</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="5"/>
+        <v>2.0594965675057253E-2</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="6"/>
+        <v>1.0683760683760646E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="D79">
+        <v>453</v>
+      </c>
+      <c r="E79">
+        <v>475</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="5"/>
+        <v>1.5695067264573925E-2</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="6"/>
+        <v>4.2283298097252064E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="D80">
+        <v>455</v>
+      </c>
+      <c r="E80">
+        <v>480</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="5"/>
+        <v>4.4150110375276164E-3</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="6"/>
+        <v>1.0526315789473717E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="D81">
+        <v>460</v>
+      </c>
+      <c r="E81">
+        <v>487</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="5"/>
+        <v>1.098901098901095E-2</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="6"/>
+        <v>1.4583333333333393E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <f t="shared" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="D82">
+        <v>468</v>
+      </c>
+      <c r="E82">
+        <v>497</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="5"/>
+        <v>1.7391304347825987E-2</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="6"/>
+        <v>2.0533880903490731E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="D83">
+        <v>800</v>
+      </c>
+      <c r="E83">
+        <v>499</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="5"/>
+        <v>0.70940170940170932</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="6"/>
+        <v>4.0241448692153181E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="D84">
+        <v>4000</v>
+      </c>
+      <c r="E84">
+        <v>800</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="6"/>
+        <v>0.60320641282565135</v>
       </c>
     </row>
   </sheetData>

--- a/template/Report.xlsx
+++ b/template/Report.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tung.nguyen\Desktop\0 Project\stock\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5D6186-73C1-4992-8C2F-64B7BC8A89D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FB7241-9117-4342-B7F3-26CB232D9A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="1290" windowWidth="18480" windowHeight="12510" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Signal" sheetId="1" r:id="rId1"/>
     <sheet name="Valuation" sheetId="2" r:id="rId2"/>
     <sheet name="FCFF" sheetId="3" r:id="rId3"/>
-    <sheet name="Beta" sheetId="7" r:id="rId4"/>
-    <sheet name="BetaTemplate" sheetId="5" r:id="rId5"/>
-    <sheet name="temp" sheetId="6" r:id="rId6"/>
+    <sheet name="FCFF_HPG" sheetId="8" r:id="rId4"/>
+    <sheet name="CAGR" sheetId="9" r:id="rId5"/>
+    <sheet name="Beta" sheetId="7" r:id="rId6"/>
+    <sheet name="BetaTemplate" sheetId="5" r:id="rId7"/>
+    <sheet name="temp" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="74">
   <si>
     <t>Symbol</t>
   </si>
@@ -908,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD29EAD-F622-4122-954F-237A33729FF7}">
   <dimension ref="B2:BF65"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1330,6 +1332,9 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
       <c r="D35" t="s">
         <v>53</v>
       </c>
@@ -1338,6 +1343,9 @@
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
       <c r="D36" t="s">
         <v>54</v>
       </c>
@@ -2532,10 +2540,1935 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635CAEF6-1171-438C-91E8-605E22176132}">
+  <dimension ref="B2:BF65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="33.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:K9" si="0">F9+1</f>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12">
+        <v>2015</v>
+      </c>
+      <c r="G12">
+        <f>F12+1</f>
+        <v>2016</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ref="H12:K12" si="1">G12+1</f>
+        <v>2017</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>2018</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>2019</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13" s="3">
+        <f>F13*1.1</f>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" ref="H13:K13" si="2">G13*1.1</f>
+        <v>121.00000000000003</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="2"/>
+        <v>133.10000000000005</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="2"/>
+        <v>146.41000000000008</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="2"/>
+        <v>161.0510000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+      <c r="H14">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <v>20</v>
+      </c>
+      <c r="K14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15">
+        <v>0.3</v>
+      </c>
+      <c r="G15">
+        <v>0.3</v>
+      </c>
+      <c r="H15">
+        <v>0.3</v>
+      </c>
+      <c r="I15">
+        <v>0.3</v>
+      </c>
+      <c r="J15">
+        <v>0.3</v>
+      </c>
+      <c r="K15">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16">
+        <v>30</v>
+      </c>
+      <c r="G16">
+        <v>30</v>
+      </c>
+      <c r="H16">
+        <v>30</v>
+      </c>
+      <c r="I16">
+        <v>30</v>
+      </c>
+      <c r="J16">
+        <v>30</v>
+      </c>
+      <c r="K16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="3">
+        <f>F13+F14*(1-F15)+F16</f>
+        <v>144</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" ref="G17:K17" si="3">G13+G14*(1-G15)+G16</f>
+        <v>154</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="3"/>
+        <v>165.00000000000003</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="3"/>
+        <v>177.10000000000005</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="3"/>
+        <v>190.41000000000008</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="3"/>
+        <v>205.0510000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+      <c r="I18">
+        <v>100</v>
+      </c>
+      <c r="J18">
+        <v>100</v>
+      </c>
+      <c r="K18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="3">
+        <f>AVERAGE(F17:K17)</f>
+        <v>172.59350000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="1">
+        <f>(K17/F17)^(1/K9)-1</f>
+        <v>7.3247486128785289E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="4">
+        <f>F19/(F30-F20)</f>
+        <v>3041.1604390187322</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F22" s="4"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24">
+        <v>2015</v>
+      </c>
+      <c r="G24">
+        <f>F24+1</f>
+        <v>2016</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24:K24" si="4">G24+1</f>
+        <v>2017</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>2018</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>2019</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30">
+        <f>F25/SUM(F25:F26)*F27+F26/SUM(F25:F26)*F28*(1-F29)</f>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33">
+        <v>2015</v>
+      </c>
+      <c r="G33">
+        <f>F33+1</f>
+        <v>2016</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ref="H33:K33" si="5">G33+1</f>
+        <v>2017</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="5"/>
+        <v>2018</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="5"/>
+        <v>2019</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="5"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="6">
+        <f>F34+F35*(F36-F34)</f>
+        <v>5.7999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39">
+        <v>2015</v>
+      </c>
+      <c r="G39">
+        <f>F39+1</f>
+        <v>2016</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ref="H39:K39" si="6">G39+1</f>
+        <v>2017</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="6"/>
+        <v>2018</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="6"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" s="4">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="6">
+        <f>F40/F41+F42</f>
+        <v>0.12173913043478261</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F44" s="6"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46">
+        <v>2015</v>
+      </c>
+      <c r="G46">
+        <f>F46+1</f>
+        <v>2016</v>
+      </c>
+      <c r="H46">
+        <f t="shared" ref="H46:K46" si="7">G46+1</f>
+        <v>2017</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="7"/>
+        <v>2018</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="7"/>
+        <v>2019</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="7"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="49" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" s="6">
+        <f>F47*(1-F48)</f>
+        <v>7.5000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51">
+        <v>2015</v>
+      </c>
+      <c r="G51">
+        <f>F51+1</f>
+        <v>2016</v>
+      </c>
+      <c r="H51">
+        <f t="shared" ref="H51:K51" si="8">G51+1</f>
+        <v>2017</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="8"/>
+        <v>2018</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="8"/>
+        <v>2019</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="8"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="52" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="2">
+        <v>1</v>
+      </c>
+      <c r="G52" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H52" s="2">
+        <v>2</v>
+      </c>
+      <c r="I52" s="2">
+        <v>3</v>
+      </c>
+      <c r="J52" s="2">
+        <v>5</v>
+      </c>
+      <c r="K52" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>63</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2">
+        <f>F53*1.1</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H53" s="2">
+        <f>G53*1.4</f>
+        <v>1.54</v>
+      </c>
+      <c r="I53" s="2">
+        <f>H53*1.1</f>
+        <v>1.6940000000000002</v>
+      </c>
+      <c r="J53" s="2">
+        <f t="shared" ref="J53:K53" si="9">I53*1.2</f>
+        <v>2.0327999999999999</v>
+      </c>
+      <c r="K53" s="2">
+        <f t="shared" si="9"/>
+        <v>2.4393599999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>64</v>
+      </c>
+      <c r="G55">
+        <f t="shared" ref="G55:J56" si="10">G52/F52-1</f>
+        <v>0.5</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="10"/>
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="10"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="K55">
+        <f>K52/J52-1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>65</v>
+      </c>
+      <c r="F56" s="6"/>
+      <c r="G56">
+        <f t="shared" si="10"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="10"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="10"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="10"/>
+        <v>0.19999999999999973</v>
+      </c>
+      <c r="K56">
+        <f>K53/J53-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>53</v>
+      </c>
+      <c r="F57" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>51</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <f>G59+1</f>
+        <v>2</v>
+      </c>
+      <c r="I59">
+        <f t="shared" ref="I59:BF59" si="11">H59+1</f>
+        <v>3</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="AA59">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="AB59">
+        <f t="shared" si="11"/>
+        <v>22</v>
+      </c>
+      <c r="AC59">
+        <f t="shared" si="11"/>
+        <v>23</v>
+      </c>
+      <c r="AD59">
+        <f t="shared" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="AE59">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="AF59">
+        <f t="shared" si="11"/>
+        <v>26</v>
+      </c>
+      <c r="AG59">
+        <f t="shared" si="11"/>
+        <v>27</v>
+      </c>
+      <c r="AH59">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="AI59">
+        <f t="shared" si="11"/>
+        <v>29</v>
+      </c>
+      <c r="AJ59">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="AK59">
+        <f t="shared" si="11"/>
+        <v>31</v>
+      </c>
+      <c r="AL59">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="AM59">
+        <f t="shared" si="11"/>
+        <v>33</v>
+      </c>
+      <c r="AN59">
+        <f t="shared" si="11"/>
+        <v>34</v>
+      </c>
+      <c r="AO59">
+        <f t="shared" si="11"/>
+        <v>35</v>
+      </c>
+      <c r="AP59">
+        <f t="shared" si="11"/>
+        <v>36</v>
+      </c>
+      <c r="AQ59">
+        <f t="shared" si="11"/>
+        <v>37</v>
+      </c>
+      <c r="AR59">
+        <f t="shared" si="11"/>
+        <v>38</v>
+      </c>
+      <c r="AS59">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+      <c r="AT59">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="AU59">
+        <f t="shared" si="11"/>
+        <v>41</v>
+      </c>
+      <c r="AV59">
+        <f t="shared" si="11"/>
+        <v>42</v>
+      </c>
+      <c r="AW59">
+        <f t="shared" si="11"/>
+        <v>43</v>
+      </c>
+      <c r="AX59">
+        <f t="shared" si="11"/>
+        <v>44</v>
+      </c>
+      <c r="AY59">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
+      <c r="AZ59">
+        <f t="shared" si="11"/>
+        <v>46</v>
+      </c>
+      <c r="BA59">
+        <f t="shared" si="11"/>
+        <v>47</v>
+      </c>
+      <c r="BB59">
+        <f t="shared" si="11"/>
+        <v>48</v>
+      </c>
+      <c r="BC59">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="BD59">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="BE59">
+        <f t="shared" si="11"/>
+        <v>51</v>
+      </c>
+      <c r="BF59">
+        <f t="shared" si="11"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G60">
+        <f t="shared" ref="G60:BE60" si="12">POWER($F$60,G59)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="12"/>
+        <v>1.2100000000000002</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="12"/>
+        <v>1.3310000000000004</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="12"/>
+        <v>1.4641000000000004</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="12"/>
+        <v>1.6105100000000006</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="12"/>
+        <v>1.7715610000000008</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="12"/>
+        <v>1.9487171000000012</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="12"/>
+        <v>2.1435888100000011</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="12"/>
+        <v>2.3579476910000015</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="12"/>
+        <v>2.5937424601000019</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="12"/>
+        <v>2.8531167061100025</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="12"/>
+        <v>3.1384283767210026</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="12"/>
+        <v>3.4522712143931029</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="12"/>
+        <v>3.7974983358324139</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="12"/>
+        <v>4.1772481694156554</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="12"/>
+        <v>4.5949729863572211</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="12"/>
+        <v>5.0544702849929433</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="12"/>
+        <v>5.5599173134922379</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="12"/>
+        <v>6.1159090448414632</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="12"/>
+        <v>6.7274999493256091</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" si="12"/>
+        <v>7.4002499442581708</v>
+      </c>
+      <c r="AB60">
+        <f t="shared" si="12"/>
+        <v>8.140274938683989</v>
+      </c>
+      <c r="AC60">
+        <f t="shared" si="12"/>
+        <v>8.9543024325523888</v>
+      </c>
+      <c r="AD60">
+        <f t="shared" si="12"/>
+        <v>9.8497326758076262</v>
+      </c>
+      <c r="AE60">
+        <f t="shared" si="12"/>
+        <v>10.834705943388391</v>
+      </c>
+      <c r="AF60">
+        <f t="shared" si="12"/>
+        <v>11.918176537727231</v>
+      </c>
+      <c r="AG60">
+        <f t="shared" si="12"/>
+        <v>13.109994191499956</v>
+      </c>
+      <c r="AH60">
+        <f t="shared" si="12"/>
+        <v>14.420993610649951</v>
+      </c>
+      <c r="AI60">
+        <f t="shared" si="12"/>
+        <v>15.863092971714947</v>
+      </c>
+      <c r="AJ60">
+        <f t="shared" si="12"/>
+        <v>17.449402268886445</v>
+      </c>
+      <c r="AK60">
+        <f t="shared" si="12"/>
+        <v>19.194342495775089</v>
+      </c>
+      <c r="AL60">
+        <f t="shared" si="12"/>
+        <v>21.113776745352599</v>
+      </c>
+      <c r="AM60">
+        <f t="shared" si="12"/>
+        <v>23.225154419887861</v>
+      </c>
+      <c r="AN60">
+        <f t="shared" si="12"/>
+        <v>25.547669861876649</v>
+      </c>
+      <c r="AO60">
+        <f t="shared" si="12"/>
+        <v>28.102436848064318</v>
+      </c>
+      <c r="AP60">
+        <f t="shared" si="12"/>
+        <v>30.912680532870748</v>
+      </c>
+      <c r="AQ60">
+        <f t="shared" si="12"/>
+        <v>34.003948586157826</v>
+      </c>
+      <c r="AR60">
+        <f t="shared" si="12"/>
+        <v>37.404343444773616</v>
+      </c>
+      <c r="AS60">
+        <f t="shared" si="12"/>
+        <v>41.144777789250981</v>
+      </c>
+      <c r="AT60">
+        <f t="shared" si="12"/>
+        <v>45.259255568176073</v>
+      </c>
+      <c r="AU60">
+        <f t="shared" si="12"/>
+        <v>49.785181124993684</v>
+      </c>
+      <c r="AV60">
+        <f t="shared" si="12"/>
+        <v>54.763699237493057</v>
+      </c>
+      <c r="AW60">
+        <f t="shared" si="12"/>
+        <v>60.240069161242374</v>
+      </c>
+      <c r="AX60">
+        <f t="shared" si="12"/>
+        <v>66.26407607736661</v>
+      </c>
+      <c r="AY60">
+        <f t="shared" si="12"/>
+        <v>72.890483685103277</v>
+      </c>
+      <c r="AZ60">
+        <f t="shared" si="12"/>
+        <v>80.179532053613613</v>
+      </c>
+      <c r="BA60">
+        <f t="shared" si="12"/>
+        <v>88.197485258974979</v>
+      </c>
+      <c r="BB60">
+        <f t="shared" si="12"/>
+        <v>97.017233784872474</v>
+      </c>
+      <c r="BC60">
+        <f t="shared" si="12"/>
+        <v>106.71895716335973</v>
+      </c>
+      <c r="BD60">
+        <f t="shared" si="12"/>
+        <v>117.39085287969571</v>
+      </c>
+      <c r="BE60">
+        <f t="shared" si="12"/>
+        <v>129.1299381676653</v>
+      </c>
+      <c r="BF60">
+        <f>POWER($F$60,BF59)</f>
+        <v>142.04293198443185</v>
+      </c>
+    </row>
+    <row r="62" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62">
+        <v>1000</v>
+      </c>
+      <c r="G62">
+        <f t="shared" ref="G62:BE62" si="13">$F$62*($F$60-1)</f>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="X62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="Y62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="Z62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="AA62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="AB62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="AC62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="AD62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="AE62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="AF62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="AG62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="AH62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="AI62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="AJ62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="AK62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="AL62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="AM62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="AN62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="AO62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="AP62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="AQ62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="AR62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="AS62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="AT62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="AU62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="AV62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="AW62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="AX62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="AY62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="AZ62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="BA62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="BB62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="BC62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="BD62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="BE62">
+        <f t="shared" si="13"/>
+        <v>100.00000000000009</v>
+      </c>
+      <c r="BF62">
+        <f>F62</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>46</v>
+      </c>
+      <c r="F64">
+        <f>SUM(G64:BF64)</f>
+        <v>999.2959874975619</v>
+      </c>
+      <c r="G64">
+        <f>G62/G60</f>
+        <v>90.909090909090978</v>
+      </c>
+      <c r="H64">
+        <f t="shared" ref="H64:BF64" si="14">H62/H60</f>
+        <v>82.644628099173616</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="14"/>
+        <v>75.131480090157822</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="14"/>
+        <v>68.301345536507114</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="14"/>
+        <v>62.092132305915548</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="14"/>
+        <v>56.447393005377762</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="14"/>
+        <v>51.315811823070689</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="14"/>
+        <v>46.650738020973357</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="14"/>
+        <v>42.409761837248503</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="14"/>
+        <v>38.554328942953177</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="14"/>
+        <v>35.04938994813925</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="14"/>
+        <v>31.863081771035681</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="14"/>
+        <v>28.966437973668803</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="14"/>
+        <v>26.333125430607996</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="14"/>
+        <v>23.939204936916362</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="14"/>
+        <v>21.762913579014871</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="14"/>
+        <v>19.784466890013519</v>
+      </c>
+      <c r="X64">
+        <f t="shared" si="14"/>
+        <v>17.985878990921382</v>
+      </c>
+      <c r="Y64">
+        <f t="shared" si="14"/>
+        <v>16.350799082655797</v>
+      </c>
+      <c r="Z64">
+        <f t="shared" si="14"/>
+        <v>14.864362802414361</v>
+      </c>
+      <c r="AA64">
+        <f t="shared" si="14"/>
+        <v>13.513057093103964</v>
+      </c>
+      <c r="AB64">
+        <f t="shared" si="14"/>
+        <v>12.284597357367238</v>
+      </c>
+      <c r="AC64">
+        <f t="shared" si="14"/>
+        <v>11.16781577942476</v>
+      </c>
+      <c r="AD64">
+        <f t="shared" si="14"/>
+        <v>10.152559799477057</v>
+      </c>
+      <c r="AE64">
+        <f t="shared" si="14"/>
+        <v>9.2295998177064131</v>
+      </c>
+      <c r="AF64">
+        <f t="shared" si="14"/>
+        <v>8.3905452888240113</v>
+      </c>
+      <c r="AG64">
+        <f t="shared" si="14"/>
+        <v>7.6277684443854641</v>
+      </c>
+      <c r="AH64">
+        <f t="shared" si="14"/>
+        <v>6.9343349494413307</v>
+      </c>
+      <c r="AI64">
+        <f t="shared" si="14"/>
+        <v>6.3039408631284823</v>
+      </c>
+      <c r="AJ64">
+        <f t="shared" si="14"/>
+        <v>5.7308553301168015</v>
+      </c>
+      <c r="AK64">
+        <f t="shared" si="14"/>
+        <v>5.2098684819243646</v>
+      </c>
+      <c r="AL64">
+        <f t="shared" si="14"/>
+        <v>4.7362440744766952</v>
+      </c>
+      <c r="AM64">
+        <f t="shared" si="14"/>
+        <v>4.3056764313424498</v>
+      </c>
+      <c r="AN64">
+        <f t="shared" si="14"/>
+        <v>3.9142513012204083</v>
+      </c>
+      <c r="AO64">
+        <f t="shared" si="14"/>
+        <v>3.5584102738367345</v>
+      </c>
+      <c r="AP64">
+        <f t="shared" si="14"/>
+        <v>3.234918430760668</v>
+      </c>
+      <c r="AQ64">
+        <f t="shared" si="14"/>
+        <v>2.9408349370551523</v>
+      </c>
+      <c r="AR64">
+        <f t="shared" si="14"/>
+        <v>2.6734863064137744</v>
+      </c>
+      <c r="AS64">
+        <f t="shared" si="14"/>
+        <v>2.4304420967397946</v>
+      </c>
+      <c r="AT64">
+        <f t="shared" si="14"/>
+        <v>2.2094928152179953</v>
+      </c>
+      <c r="AU64">
+        <f t="shared" si="14"/>
+        <v>2.0086298320163594</v>
+      </c>
+      <c r="AV64">
+        <f t="shared" si="14"/>
+        <v>1.8260271200148719</v>
+      </c>
+      <c r="AW64">
+        <f t="shared" si="14"/>
+        <v>1.6600246545589741</v>
+      </c>
+      <c r="AX64">
+        <f t="shared" si="14"/>
+        <v>1.5091133223263402</v>
+      </c>
+      <c r="AY64">
+        <f t="shared" si="14"/>
+        <v>1.3719212021148546</v>
+      </c>
+      <c r="AZ64">
+        <f t="shared" si="14"/>
+        <v>1.2472010928316859</v>
+      </c>
+      <c r="BA64">
+        <f t="shared" si="14"/>
+        <v>1.1338191753015325</v>
+      </c>
+      <c r="BB64">
+        <f t="shared" si="14"/>
+        <v>1.030744704819575</v>
+      </c>
+      <c r="BC64">
+        <f t="shared" si="14"/>
+        <v>0.93704064074506821</v>
+      </c>
+      <c r="BD64">
+        <f t="shared" si="14"/>
+        <v>0.85185512795006191</v>
+      </c>
+      <c r="BE64">
+        <f t="shared" si="14"/>
+        <v>0.7744137526818744</v>
+      </c>
+      <c r="BF64">
+        <f t="shared" si="14"/>
+        <v>7.0401250243806697</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <f>G62/(F60-1)</f>
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D47284-54D1-40B8-8611-26CD10E24751}">
+  <dimension ref="B2:O22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>2015</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <v>2000</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <f t="shared" ref="B3:B7" si="0">B2+1</f>
+        <v>2016</v>
+      </c>
+      <c r="C3">
+        <f>C2+1</f>
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K7" si="1">K2+1</f>
+        <v>2001</v>
+      </c>
+      <c r="L3">
+        <f>L2+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C8" si="2">C3+1</f>
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>2002</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L7" si="3">L3+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>2003</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>2004</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1">
+        <f>(D7/D2)^(1/C7)-1</f>
+        <v>0.34336989489283232</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>2005</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <f t="shared" ref="K8:K35" si="4">K7+1</f>
+        <v>2006</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8:L35" si="5">L7+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>2007</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>2008</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>2009</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>2010</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>2011</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>2012</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>2013</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>2014</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>2015</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>2017</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>2018</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>2019</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>2020</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="M22">
+        <v>1400</v>
+      </c>
+      <c r="O22" s="8">
+        <f>(M22/M2)^(1/L22)-1</f>
+        <v>0.14105453608382268</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D13E89-9855-41A0-BC4E-FEF1446A701B}">
   <dimension ref="C1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -4222,7 +6155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAC6568-ADD9-457A-93CC-B6B5A264C222}">
   <dimension ref="B1:M1"/>
   <sheetViews>
@@ -4271,7 +6204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8E4030-03F7-462C-84F4-5912C2855BBD}">
   <dimension ref="B3:F6"/>
   <sheetViews>

--- a/template/Report.xlsx
+++ b/template/Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tung.nguyen\Desktop\0 Project\stock\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FB7241-9117-4342-B7F3-26CB232D9A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9F140F-7F49-4AC2-86AD-9E815E2EA27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Signal" sheetId="1" r:id="rId1"/>
@@ -910,7 +910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD29EAD-F622-4122-954F-237A33729FF7}">
   <dimension ref="B2:BF65"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
@@ -2543,8 +2543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635CAEF6-1171-438C-91E8-605E22176132}">
   <dimension ref="B2:BF65"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -4174,10 +4174,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D47284-54D1-40B8-8611-26CD10E24751}">
-  <dimension ref="B2:O22"/>
+  <dimension ref="B2:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4202,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
@@ -4214,6 +4214,10 @@
         <f>C2+1</f>
         <v>1</v>
       </c>
+      <c r="G3">
+        <f>D2*(1+$F$7)</f>
+        <v>10.746959159142659</v>
+      </c>
       <c r="K3">
         <f t="shared" ref="K3:K7" si="1">K2+1</f>
         <v>2001</v>
@@ -4229,8 +4233,12 @@
         <v>2017</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C8" si="2">C3+1</f>
+        <f t="shared" ref="C4:C7" si="2">C3+1</f>
         <v>2</v>
+      </c>
+      <c r="G4">
+        <f>G3*(1+$F$7)</f>
+        <v>14.437141396035035</v>
       </c>
       <c r="K4">
         <f t="shared" si="1"/>
@@ -4250,6 +4258,10 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G7" si="4">G4*(1+$F$7)</f>
+        <v>19.394421119744543</v>
+      </c>
       <c r="K5">
         <f t="shared" si="1"/>
         <v>2003</v>
@@ -4268,6 +4280,10 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>26.053881461138552</v>
+      </c>
       <c r="K6">
         <f t="shared" si="1"/>
         <v>2004</v>
@@ -4293,6 +4309,10 @@
         <f>(D7/D2)^(1/C7)-1</f>
         <v>0.34336989489283232</v>
       </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>35.000000000000007</v>
+      </c>
       <c r="K7">
         <f t="shared" si="1"/>
         <v>2005</v>
@@ -4304,159 +4324,170 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K8">
-        <f t="shared" ref="K8:K35" si="4">K7+1</f>
+        <f t="shared" ref="K8:K23" si="5">K7+1</f>
         <v>2006</v>
       </c>
       <c r="L8">
-        <f t="shared" ref="L8:L35" si="5">L7+1</f>
+        <f t="shared" ref="L8:L23" si="6">L7+1</f>
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2007</v>
       </c>
       <c r="L9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2008</v>
       </c>
       <c r="L10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2009</v>
       </c>
       <c r="L11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2010</v>
       </c>
       <c r="L12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2011</v>
       </c>
       <c r="L13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2012</v>
       </c>
       <c r="L14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2013</v>
       </c>
       <c r="L15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2014</v>
       </c>
       <c r="L16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2015</v>
       </c>
       <c r="L17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2016</v>
       </c>
       <c r="L18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2017</v>
       </c>
       <c r="L19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2018</v>
       </c>
       <c r="L20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2019</v>
       </c>
       <c r="L21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2020</v>
       </c>
       <c r="L22">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="O22" s="8"/>
+    </row>
+    <row r="23" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K23">
         <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="M22">
-        <v>1400</v>
-      </c>
-      <c r="O22" s="8">
-        <f>(M22/M2)^(1/L22)-1</f>
-        <v>0.14105453608382268</v>
+        <v>2021</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="M23">
+        <v>1223</v>
+      </c>
+      <c r="O23">
+        <f>(M23/M2)^(1/L23)-1</f>
+        <v>0.10872472953143797</v>
       </c>
     </row>
   </sheetData>
